--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
@@ -76,7 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Rspo1</t>
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H2">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05147733333333333</v>
+        <v>0.05147733333333334</v>
       </c>
       <c r="N2">
         <v>0.154432</v>
       </c>
       <c r="O2">
-        <v>0.6968198390066058</v>
+        <v>0.887188413789934</v>
       </c>
       <c r="P2">
-        <v>0.6968198390066057</v>
+        <v>0.8871884137899338</v>
       </c>
       <c r="Q2">
-        <v>0.01906001459911111</v>
+        <v>0.0405586134328889</v>
       </c>
       <c r="R2">
-        <v>0.171540131392</v>
+        <v>0.365027520896</v>
       </c>
       <c r="S2">
-        <v>0.6968198390066058</v>
+        <v>0.887188413789934</v>
       </c>
       <c r="T2">
-        <v>0.6968198390066057</v>
+        <v>0.8871884137899338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.7878926666666667</v>
+      </c>
+      <c r="H3">
+        <v>2.363678</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.3702603333333334</v>
-      </c>
-      <c r="H3">
-        <v>1.110781</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>0.02239733333333334</v>
+        <v>0.006545666666666668</v>
       </c>
       <c r="N3">
-        <v>0.067192</v>
+        <v>0.019637</v>
       </c>
       <c r="O3">
-        <v>0.3031801609933943</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="P3">
-        <v>0.3031801609933942</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="Q3">
-        <v>0.00829284410577778</v>
+        <v>0.005157282765111112</v>
       </c>
       <c r="R3">
-        <v>0.07463559695200001</v>
+        <v>0.04641554488600001</v>
       </c>
       <c r="S3">
-        <v>0.3031801609933943</v>
+        <v>0.1128115862100661</v>
       </c>
       <c r="T3">
-        <v>0.3031801609933942</v>
+        <v>0.1128115862100661</v>
       </c>
     </row>
   </sheetData>
